--- a/references/XIRR.xlsx
+++ b/references/XIRR.xlsx
@@ -47,9 +47,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -128,12 +128,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +463,7 @@
         <v>99910.265820000001</v>
       </c>
       <c r="G3" s="6">
-        <f>IF(D3="Buy",FLOOR(F2/B3,1),0)</f>
+        <f>IF(D3="Buy",FLOOR(ABS(F2)/B3,1),0)</f>
         <v>870</v>
       </c>
       <c r="H3" s="5"/>
@@ -486,12 +486,12 @@
         <v>-85271.303910000002</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" ref="G4:G18" si="0">IF(D4="Buy",FLOOR(F3/B4,1),0)</f>
+        <f t="shared" ref="G4:G18" si="0">IF(D4="Buy",FLOOR(ABS(F3)/B4,1),0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <f>IF(D4="Buy",0,F4-F3)</f>
-        <v>-185181.56972999999</v>
+        <f>IF(D4="Buy",0,F4+F3)*C4</f>
+        <v>-14638.961909999998</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -508,15 +508,15 @@
         <v>0</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F18" si="1">IF(D5="Buy",G5*B5,G4*B5)</f>
-        <v>-85326.977169999998</v>
+        <f t="shared" ref="F5:F18" si="1">IF(D5="Buy",G5*B5,G4*B5)*C5</f>
+        <v>85238.555432000008</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>-965</v>
+        <v>964</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" ref="H5:H18" si="2">IF(D5="Buy",0,F5-F4)</f>
+        <f t="shared" ref="H5:H18" si="2">IF(D5="Buy",0,F5+F4)*C5</f>
         <v>0</v>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="F6" s="7">
         <f t="shared" si="1"/>
-        <v>-66072.940119999999</v>
+        <v>-66004.470752000008</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
@@ -543,7 +543,7 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
-        <v>19254.037049999999</v>
+        <v>-19234.08468</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -561,11 +561,11 @@
       </c>
       <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>-66144.69081</v>
+        <v>65998.676040000006</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>-906</v>
+        <v>904</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="2"/>
@@ -587,7 +587,7 @@
       </c>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>-101677.12746</v>
+        <v>-101452.67464</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
@@ -595,7 +595,7 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>-35532.436650000003</v>
+        <v>35453.998599999992</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -613,11 +613,11 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>-101728.996367</v>
+        <v>101358.17378</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>-823</v>
+        <v>820</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="2"/>
@@ -639,7 +639,7 @@
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>-91503.601592999999</v>
+        <v>-91170.052620000002</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="0"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="2"/>
-        <v>10225.394774</v>
+        <v>-10188.121159999995</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,11 +665,11 @@
       </c>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>-91603.977586000008</v>
+        <v>91153.835189999998</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="0"/>
-        <v>-814</v>
+        <v>810</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="2"/>
@@ -691,7 +691,7 @@
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>-84903.537400000001</v>
+        <v>-84486.321000000011</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="0"/>
@@ -699,7 +699,7 @@
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>6700.4401860000071</v>
+        <v>-6667.5141899999871</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,11 +717,11 @@
       </c>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>-84937.044399999999</v>
+        <v>84447.022990000012</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="0"/>
-        <v>-1040</v>
+        <v>1034</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="2"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>-714861.93896000006</v>
+        <v>-710737.73546600004</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="0"/>
@@ -751,7 +751,7 @@
       </c>
       <c r="H14" s="5">
         <f t="shared" si="2"/>
-        <v>-629924.89456000004</v>
+        <v>626290.71247600007</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -769,11 +769,11 @@
       </c>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>-715188.19590400008</v>
+        <v>710427.32773600006</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="0"/>
-        <v>-1352</v>
+        <v>1343</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="2"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>-589445.46970399993</v>
+        <v>-585521.64631099999</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
@@ -803,7 +803,7 @@
       </c>
       <c r="H16" s="5">
         <f t="shared" si="2"/>
-        <v>125742.72620000015</v>
+        <v>-124905.68142500008</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -821,11 +821,11 @@
       </c>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>-589514.1754239999</v>
+        <v>585402.48108799988</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>-1147</v>
+        <v>1139</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="2"/>
@@ -840,14 +840,14 @@
         <v>1158</v>
       </c>
       <c r="C18" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="7">
-        <f>-1* IF(D18="Buy",G18*B18,G17*B18)</f>
-        <v>1328226</v>
+        <f t="shared" si="1"/>
+        <v>-1318962</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="0"/>
@@ -855,7 +855,7 @@
       </c>
       <c r="H18" s="5">
         <f t="shared" si="2"/>
-        <v>1917740.1754239998</v>
+        <v>733559.51891200012</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -863,8 +863,8 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" s="10">
-        <f>XIRR(F3:F18,A3:A18)</f>
-        <v>0.30897081494331369</v>
+        <f>XIRR(F5:F18,A5:A18)</f>
+        <v>0.42730866074562068</v>
       </c>
     </row>
   </sheetData>
